--- a/Sheet/Shree jyotirling fund Sheet.xlsx
+++ b/Sheet/Shree jyotirling fund Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankita\Documents\ShreeJyotirlingPrasanna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankita\Documents\CommandGit\Lets-Learn-Git\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2448,6 +2448,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2490,13 +2499,13 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2504,24 +2513,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2541,26 +2532,35 @@
     <xf numFmtId="0" fontId="28" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="237">
+  <dxfs count="233">
     <dxf>
       <font>
         <b val="0"/>
@@ -3772,41 +3772,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7861,6 +7826,13 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -8675,11 +8647,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805418272"/>
-        <c:axId val="-1805415008"/>
+        <c:axId val="1179650720"/>
+        <c:axId val="1179651264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805418272"/>
+        <c:axId val="1179650720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8721,7 +8693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805415008"/>
+        <c:crossAx val="1179651264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8729,7 +8701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805415008"/>
+        <c:axId val="1179651264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8779,7 +8751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805418272"/>
+        <c:crossAx val="1179650720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9387,7 +9359,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9430,7 +9402,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Fire Ceremony Dattatreya Jayanti Havan | Lilleoru.ee">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9494,7 +9466,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Jotiba Desktop Wallpaper of God \u2013 Free wallpaper download ...">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9563,7 +9535,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Fire Ceremony Dattatreya Jayanti Havan | Lilleoru.ee">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9613,7 +9585,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Jotiba Desktop Wallpaper of God \u2013 Free wallpaper download ...">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9649,53 +9621,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:I29" totalsRowCount="1" headerRowDxfId="236" headerRowBorderDxfId="235" tableBorderDxfId="234" totalsRowBorderDxfId="233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:I29" totalsRowCount="1" headerRowDxfId="232" headerRowBorderDxfId="231" tableBorderDxfId="230" totalsRowBorderDxfId="229">
   <autoFilter ref="A7:I28"/>
   <tableColumns count="9">
-    <tableColumn id="8" name="SR.NO" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="1" name="DATE" dataDxfId="230" totalsRowDxfId="229"/>
-    <tableColumn id="2" name="NAME" totalsRowLabel="TOTAL" dataDxfId="228" totalsRowDxfId="227"/>
-    <tableColumn id="3" name="VARGANI" totalsRowFunction="custom" dataDxfId="226" totalsRowDxfId="225">
+    <tableColumn id="8" name="SR.NO" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="1" name="DATE" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="2" name="NAME" totalsRowLabel="TOTAL" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="3" name="VARGANI" totalsRowFunction="custom" dataDxfId="222" totalsRowDxfId="221">
       <totalsRowFormula>SUM(Table1[VARGANI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="VYAJ" totalsRowFunction="sum" dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="5" name="KARJ" dataDxfId="222" totalsRowDxfId="221"/>
-    <tableColumn id="9" name="PARAT PHED" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="11" name="TOTAL KARJ" totalsRowFunction="custom" dataDxfId="218" totalsRowDxfId="217">
+    <tableColumn id="4" name="VYAJ" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="5" name="KARJ" dataDxfId="218" totalsRowDxfId="217"/>
+    <tableColumn id="9" name="PARAT PHED" dataDxfId="216" totalsRowDxfId="215"/>
+    <tableColumn id="11" name="TOTAL KARJ" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="213">
       <calculatedColumnFormula>Table1[[#This Row],[KARJ]]-Table1[[#This Row],[PARAT PHED]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[TOTAL KARJ])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="DAND" dataDxfId="216" totalsRowDxfId="215"/>
+    <tableColumn id="10" name="DAND" dataDxfId="212" totalsRowDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G11:P41" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G11:P41" totalsRowShown="0" headerRowDxfId="210" dataDxfId="208" headerRowBorderDxfId="209" tableBorderDxfId="207">
   <autoFilter ref="G11:P41"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="SR.NO" dataDxfId="210"/>
-    <tableColumn id="2" name="DATE" dataDxfId="209"/>
-    <tableColumn id="3" name="NAME" dataDxfId="208"/>
-    <tableColumn id="4" name="VARGANI" dataDxfId="207"/>
-    <tableColumn id="5" name="VYAJ" dataDxfId="206"/>
-    <tableColumn id="11" name="TOTAL(V^2)" dataDxfId="205">
+    <tableColumn id="1" name="SR.NO" dataDxfId="206"/>
+    <tableColumn id="2" name="DATE" dataDxfId="205"/>
+    <tableColumn id="3" name="NAME" dataDxfId="204"/>
+    <tableColumn id="4" name="VARGANI" dataDxfId="203"/>
+    <tableColumn id="5" name="VYAJ" dataDxfId="202"/>
+    <tableColumn id="11" name="TOTAL(V^2)" dataDxfId="201">
       <calculatedColumnFormula>SUM(Table2[[#This Row],[VARGANI]],Table2[[#This Row],[VYAJ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="KARJ" dataDxfId="204"/>
-    <tableColumn id="7" name="PARAT PHED" dataDxfId="203"/>
-    <tableColumn id="8" name="TOTAL KARJ" dataDxfId="202">
+    <tableColumn id="6" name="KARJ" dataDxfId="200"/>
+    <tableColumn id="7" name="PARAT PHED" dataDxfId="199"/>
+    <tableColumn id="8" name="TOTAL KARJ" dataDxfId="198">
       <calculatedColumnFormula>Table2[[#This Row],[KARJ]]-Table2[[#This Row],[PARAT PHED]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="DAND" dataDxfId="201"/>
+    <tableColumn id="9" name="DAND" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="I15:AP60" totalsRowCount="1" headerRowDxfId="198" dataDxfId="196" totalsRowDxfId="194" headerRowBorderDxfId="197" tableBorderDxfId="195" totalsRowBorderDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="I15:AP60" totalsRowCount="1" headerRowDxfId="193" dataDxfId="191" totalsRowDxfId="189" headerRowBorderDxfId="192" tableBorderDxfId="190" totalsRowBorderDxfId="188">
   <autoFilter ref="I15:AP59"/>
   <sortState ref="I16:AP59">
     <sortCondition descending="1" ref="L15:L59"/>
@@ -9787,7 +9759,7 @@
       <calculatedColumnFormula>Table35[[#This Row],[KARJ]]-Table35[[#This Row],[PARAT PHED]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="DAND" totalsRowFunction="sum" totalsRowDxfId="1"/>
-    <tableColumn id="14" name="HELP" dataDxfId="192" totalsRowDxfId="0">
+    <tableColumn id="14" name="HELP" dataDxfId="187" totalsRowDxfId="0">
       <calculatedColumnFormula>IFERROR(SEARCH($T$9,Table35[[#This Row],[NAME]]),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9796,59 +9768,59 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H5:K70" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H5:K70" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="H5:K70"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SR.No" dataDxfId="189" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="FirstName" dataDxfId="188" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="LastName" dataDxfId="187" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="vargani" dataDxfId="186" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="SR.No" dataDxfId="184" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="FirstName" dataDxfId="183" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="LastName" dataDxfId="182" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="vargani" dataDxfId="181" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table354" displayName="Table354" ref="I17:AN55" totalsRowCount="1" headerRowDxfId="178" dataDxfId="176" totalsRowDxfId="174" headerRowBorderDxfId="177" tableBorderDxfId="175" totalsRowBorderDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table354" displayName="Table354" ref="I17:AN55" totalsRowCount="1" headerRowDxfId="173" dataDxfId="171" totalsRowDxfId="169" headerRowBorderDxfId="172" tableBorderDxfId="170" totalsRowBorderDxfId="168">
   <autoFilter ref="I17:AN54"/>
   <sortState ref="I18:AN54">
     <sortCondition ref="L17:L54"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="SR.NO" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="2" name="DATE" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="3" name="NAME" totalsRowLabel="TOTAL" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="4" name="JAN" totalsRowFunction="sum" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="12" name="FEB" totalsRowFunction="sum" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="13" name="MAR" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="14" name="APR" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="15" name="MAY" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="16" name="JUN" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="17" name="JUL" totalsRowFunction="sum" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="18" name="AUG" totalsRowFunction="sum" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="19" name="SEP" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="20" name="OCT" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="21" name="NOV" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="22" name="DEC" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="23" name="JAN2" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="5" name="FEB3" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="6" name="MAR4" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="7" name="APR5" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="8" name="MAY6" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="9" name="JUN7" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="10" name="JUL8" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="48" name="AUG9" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="49" name="SEP10" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="50" name="OCT11" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="51" name="NOV12" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="52" name="DEC13" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="60" name="VYAJ2" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="61" name="TOTAL(V^2)3" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="1" name="SR.NO" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="2" name="DATE" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="3" name="NAME" totalsRowLabel="TOTAL" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="4" name="JAN" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="12" name="FEB" totalsRowFunction="sum" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="13" name="MAR" totalsRowFunction="sum" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="14" name="APR" totalsRowFunction="sum" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="15" name="MAY" totalsRowFunction="sum" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="16" name="JUN" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="17" name="JUL" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="18" name="AUG" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="19" name="SEP" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="20" name="OCT" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="21" name="NOV" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="22" name="DEC" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="23" name="JAN2" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="5" name="FEB3" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="6" name="MAR4" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="7" name="APR5" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="8" name="MAY6" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="9" name="JUN7" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="10" name="JUL8" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="48" name="AUG9" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="49" name="SEP10" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="50" name="OCT11" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="51" name="NOV12" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="52" name="DEC13" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="60" name="VYAJ2" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="61" name="TOTAL(V^2)3" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>SUM(Table354[[#This Row],[JAN]:[VYAJ2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="62" name="KARJ4" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="63" name="PARAT PHED5" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="64" name="TOTAL KARJ6" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="62" name="KARJ4" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="63" name="PARAT PHED5" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="64" name="TOTAL KARJ6" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>Table354[[#This Row],[APR5]]-Table354[[#This Row],[MAY6]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9857,46 +9829,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table3546" displayName="Table3546" ref="AX15:CC53" totalsRowCount="1" headerRowDxfId="108" dataDxfId="106" totalsRowDxfId="104" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table3546" displayName="Table3546" ref="AX15:CC53" totalsRowCount="1" headerRowDxfId="103" dataDxfId="101" totalsRowDxfId="99" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="98">
   <autoFilter ref="AX15:CC52"/>
   <sortState ref="AX16:CC52">
     <sortCondition ref="BA17:BA54"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="SR.NO" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="2" name="DATE" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="3" name="NAME" totalsRowLabel="TOTAL" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="4" name="JAN" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="12" name="FEB" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="13" name="MAR" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="14" name="APR" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="15" name="MAY" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="16" name="JUN" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="17" name="JUL" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="18" name="AUG" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="19" name="SEP" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="20" name="OCT" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="21" name="NOV" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="22" name="DEC" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="23" name="JAN2" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="5" name="FEB3" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="6" name="MAR4" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="7" name="APR5" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="8" name="MAY6" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="9" name="JUN7" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="10" name="JUL8" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="48" name="AUG9" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="49" name="SEP10" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="50" name="OCT11" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="51" name="NOV12" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="52" name="DEC13" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="60" name="VYAJ2" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="61" name="TOTAL(V^2)3" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="1" name="SR.NO" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="2" name="DATE" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="3" name="NAME" totalsRowLabel="TOTAL" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="4" name="JAN" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="12" name="FEB" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="13" name="MAR" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="14" name="APR" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="15" name="MAY" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="16" name="JUN" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="17" name="JUL" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="18" name="AUG" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="19" name="SEP" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="20" name="OCT" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="21" name="NOV" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="22" name="DEC" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="23" name="JAN2" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="5" name="FEB3" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="6" name="MAR4" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="7" name="APR5" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="8" name="MAY6" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="9" name="JUN7" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="10" name="JUL8" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="48" name="AUG9" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="49" name="SEP10" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="50" name="OCT11" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="51" name="NOV12" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="52" name="DEC13" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="60" name="VYAJ2" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="61" name="TOTAL(V^2)3" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>SUM(Table3546[[#This Row],[JAN]:[VYAJ2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="62" name="KARJ4" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="63" name="PARAT PHED5" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="64" name="TOTAL KARJ6" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="62" name="KARJ4" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="63" name="PARAT PHED5" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="64" name="TOTAL KARJ6" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Table3546[[#This Row],[APR5]]-Table3546[[#This Row],[MAY6]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10423,7 +10395,7 @@
       </c>
       <c r="B9" s="18">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
+        <v>45283</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
@@ -12077,8 +12049,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="I7:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AJ60" sqref="AJ60"/>
+    <sheetView tabSelected="1" topLeftCell="AC37" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AJ55" sqref="AJ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12122,56 +12094,56 @@
   <sheetData>
     <row r="7" spans="9:42" ht="15" thickBot="1"/>
     <row r="8" spans="9:42" ht="14.4" customHeight="1">
-      <c r="I8" s="132" t="s">
+      <c r="I8" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="134"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="9:42" ht="27" customHeight="1">
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="R9" s="143" t="s">
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="142"/>
+      <c r="R9" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="143"/>
-      <c r="T9" s="144" t="s">
+      <c r="S9" s="148"/>
+      <c r="T9" s="149" t="s">
         <v>255</v>
       </c>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
     </row>
     <row r="10" spans="9:42" ht="14.4" customHeight="1">
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="142"/>
     </row>
     <row r="11" spans="9:42" ht="15" customHeight="1" thickBot="1">
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="140"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="145"/>
     </row>
     <row r="12" spans="9:42" ht="9" customHeight="1">
       <c r="I12" s="54"/>
@@ -16210,10 +16182,12 @@
       <c r="AI54" s="127">
         <v>200</v>
       </c>
-      <c r="AJ54" s="128"/>
+      <c r="AJ54" s="128">
+        <v>200</v>
+      </c>
       <c r="AK54" s="129">
         <f>SUM(Table35[[#This Row],[JAN]:[VYAJ]])</f>
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="AL54" s="128"/>
       <c r="AM54" s="128"/>
@@ -16722,142 +16696,142 @@
       </c>
     </row>
     <row r="60" spans="9:42" ht="18">
-      <c r="I60" s="165"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="166" t="s">
+      <c r="I60" s="132"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="167">
+      <c r="L60" s="134">
         <f>SUM(L16:L59)</f>
         <v>36800</v>
       </c>
-      <c r="M60" s="168">
+      <c r="M60" s="135">
         <f>SUM(M16:M59)</f>
         <v>36800</v>
       </c>
-      <c r="N60" s="168">
+      <c r="N60" s="135">
         <f>SUM(N16:N59)</f>
         <v>36800</v>
       </c>
-      <c r="O60" s="168">
+      <c r="O60" s="135">
         <f>SUBTOTAL(109,Table35[APR])</f>
         <v>36800</v>
       </c>
-      <c r="P60" s="168">
+      <c r="P60" s="135">
         <f t="shared" ref="P60:AI60" si="0">SUM(P16:P59)</f>
         <v>36800</v>
       </c>
-      <c r="Q60" s="168">
+      <c r="Q60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="R60" s="168">
+      <c r="R60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="S60" s="168">
+      <c r="S60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="T60" s="168">
+      <c r="T60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="U60" s="168">
+      <c r="U60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="V60" s="168">
+      <c r="V60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="W60" s="168">
+      <c r="W60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="X60" s="168">
+      <c r="X60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="Y60" s="168">
+      <c r="Y60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="Z60" s="168">
+      <c r="Z60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AA60" s="168">
+      <c r="AA60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AB60" s="168">
+      <c r="AB60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AC60" s="168">
+      <c r="AC60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AD60" s="168">
+      <c r="AD60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AE60" s="168">
+      <c r="AE60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AF60" s="168">
+      <c r="AF60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AG60" s="168">
+      <c r="AG60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AH60" s="168">
+      <c r="AH60" s="135">
         <f t="shared" si="0"/>
         <v>36800</v>
       </c>
-      <c r="AI60" s="168">
+      <c r="AI60" s="135">
         <f t="shared" si="0"/>
         <v>34600</v>
       </c>
-      <c r="AJ60" s="166">
+      <c r="AJ60" s="133">
         <f>SUBTOTAL(109,Table35[VYAJ])</f>
-        <v>156930</v>
-      </c>
-      <c r="AK60" s="166">
+        <v>157130</v>
+      </c>
+      <c r="AK60" s="133">
         <f>SUM(Table35[TOTAL(V^2)])</f>
-        <v>1037930</v>
-      </c>
-      <c r="AL60" s="166">
+        <v>1038130</v>
+      </c>
+      <c r="AL60" s="133">
         <f>SUM(Table35[KARJ])</f>
         <v>785200</v>
       </c>
-      <c r="AM60" s="166">
+      <c r="AM60" s="133">
         <f>SUBTOTAL(109,Table35[PARAT PHED])</f>
         <v>349000</v>
       </c>
-      <c r="AN60" s="166">
+      <c r="AN60" s="133">
         <f>SUBTOTAL(109,Table35[TOTAL])</f>
         <v>436200</v>
       </c>
-      <c r="AO60" s="169">
+      <c r="AO60" s="136">
         <f>SUBTOTAL(109,Table35[DAND])</f>
         <v>3330</v>
       </c>
-      <c r="AP60" s="166"/>
+      <c r="AP60" s="133"/>
     </row>
     <row r="61" spans="9:42" ht="15" thickBot="1"/>
     <row r="62" spans="9:42" ht="18.600000000000001" thickBot="1">
-      <c r="I62" s="141" t="s">
+      <c r="I62" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="J62" s="142"/>
+      <c r="J62" s="147"/>
       <c r="K62" s="74">
         <f>Table35[[#Totals],[TOTAL(V^2)]]-Table35[[#Totals],[TOTAL]]+Table35[[#Totals],[DAND]]</f>
-        <v>605060</v>
+        <v>605260</v>
       </c>
     </row>
     <row r="64" spans="9:42">
@@ -16873,17 +16847,17 @@
     <mergeCell ref="T9:W9"/>
   </mergeCells>
   <conditionalFormatting sqref="AP16:AP53">
-    <cfRule type="expression" dxfId="200" priority="19">
+    <cfRule type="expression" dxfId="196" priority="19">
       <formula>IF(ISBLANK($T$9),0,$AP16&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:AO17">
-    <cfRule type="expression" dxfId="199" priority="2">
+    <cfRule type="expression" dxfId="195" priority="2">
       <formula>IF(ISBLANK($T$9),0,$AP16&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:AO59">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="194" priority="1">
       <formula>IF(ISBLANK($T$9),0,$AP18&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18055,17 +18029,17 @@
     </row>
     <row r="5" spans="2:20" ht="18">
       <c r="B5" s="114"/>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
       <c r="L5" s="116"/>
       <c r="Q5">
         <f>IF(ISNUMBER(SEARCH($E$11,R5)),MAX($Q$1:Q4)+1,0)</f>
@@ -18081,15 +18055,15 @@
     </row>
     <row r="6" spans="2:20" ht="18">
       <c r="B6" s="114"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
       <c r="L6" s="116"/>
       <c r="Q6">
         <f>IF(ISNUMBER(SEARCH($E$11,R6)),MAX($Q$1:Q5)+1,0)</f>
@@ -18105,15 +18079,15 @@
     </row>
     <row r="7" spans="2:20" ht="18">
       <c r="B7" s="114"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
       <c r="L7" s="116"/>
       <c r="Q7">
         <f>IF(ISNUMBER(SEARCH($E$11,R7)),MAX($Q$1:Q6)+1,0)</f>
@@ -18129,17 +18103,17 @@
     </row>
     <row r="8" spans="2:20" ht="14.4" customHeight="1">
       <c r="B8" s="114"/>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
       <c r="L8" s="116"/>
       <c r="Q8">
         <f>IF(ISNUMBER(SEARCH($E$11,R8)),MAX($Q$1:Q7)+1,0)</f>
@@ -18155,15 +18129,15 @@
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1">
       <c r="B9" s="114"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
       <c r="L9" s="116"/>
       <c r="Q9">
         <f>IF(ISNUMBER(SEARCH($E$11,R9)),MAX($Q$1:Q8)+1,0)</f>
@@ -18203,17 +18177,17 @@
     </row>
     <row r="11" spans="2:20" ht="28.8" thickBot="1">
       <c r="B11" s="114"/>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="151" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="167"/>
       <c r="J11" s="115"/>
       <c r="K11" s="115"/>
       <c r="L11" s="116"/>
@@ -18233,9 +18207,9 @@
       <c r="B12" s="114"/>
       <c r="C12" s="115"/>
       <c r="D12" s="115"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
       <c r="H12" s="115"/>
       <c r="I12" s="115"/>
       <c r="J12" s="115"/>
@@ -18254,20 +18228,20 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="25.8" thickBot="1">
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="149">
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,2,0),0)</f>
         <v>600</v>
       </c>
-      <c r="G13" s="150"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="115"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
       <c r="K13" s="115"/>
       <c r="L13" s="115"/>
       <c r="Q13">
@@ -18307,17 +18281,17 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="25.8" thickBot="1">
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="149">
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,27,0),0)</f>
         <v>22680</v>
       </c>
-      <c r="G15" s="150"/>
+      <c r="G15" s="155"/>
       <c r="H15" s="115"/>
       <c r="I15" s="115"/>
       <c r="J15" s="115"/>
@@ -18336,9 +18310,9 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
       <c r="E16" s="115"/>
       <c r="F16" s="115"/>
       <c r="G16" s="115"/>
@@ -18360,17 +18334,17 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="149">
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,26,0),0)</f>
         <v>8280</v>
       </c>
-      <c r="G17" s="150"/>
+      <c r="G17" s="155"/>
       <c r="H17" s="115"/>
       <c r="I17" s="115"/>
       <c r="J17" s="115"/>
@@ -18413,17 +18387,17 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="149">
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,28,0),0)</f>
         <v>61000</v>
       </c>
-      <c r="G19" s="150"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="117"/>
       <c r="I19" s="115"/>
       <c r="J19" s="115"/>
@@ -18466,17 +18440,17 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="149">
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,29,0),0)</f>
         <v>61000</v>
       </c>
-      <c r="G21" s="150"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="117"/>
       <c r="I21" s="115"/>
       <c r="J21" s="115"/>
@@ -18519,17 +18493,17 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="149">
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,30,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="150"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="115"/>
       <c r="I23" s="115"/>
       <c r="J23" s="115"/>
@@ -18857,6 +18831,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C5:K7"/>
+    <mergeCell ref="C8:K9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B16:D16"/>
@@ -18869,31 +18850,24 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C5:K7"/>
-    <mergeCell ref="C8:K9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R36">
-    <cfRule type="expression" dxfId="185" priority="4">
+    <cfRule type="expression" dxfId="180" priority="4">
       <formula>IF(ISBLANK($T$9),0,$AP2&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37:R43">
-    <cfRule type="expression" dxfId="184" priority="3">
+    <cfRule type="expression" dxfId="179" priority="3">
       <formula>IF(ISBLANK($T$9),0,$AP37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44">
-    <cfRule type="expression" dxfId="183" priority="2">
+    <cfRule type="expression" dxfId="178" priority="2">
       <formula>IF(ISBLANK($T$9),0,$AP44&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45">
-    <cfRule type="expression" dxfId="182" priority="1">
+    <cfRule type="expression" dxfId="177" priority="1">
       <formula>IF(ISBLANK($T$9),0,$AP45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19049,18 +19023,18 @@
       <c r="BP9" s="55"/>
     </row>
     <row r="10" spans="9:81" ht="14.4" customHeight="1">
-      <c r="I10" s="163" t="s">
+      <c r="I10" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
       <c r="AM10" s="55"/>
       <c r="AN10" s="55"/>
       <c r="AO10" s="55"/>
@@ -19093,16 +19067,16 @@
       <c r="BP10" s="55"/>
     </row>
     <row r="11" spans="9:81" ht="14.4" customHeight="1">
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
       <c r="AM11" s="55"/>
       <c r="AN11" s="55"/>
       <c r="AO11" s="55"/>
@@ -19135,16 +19109,16 @@
       <c r="BP11" s="55"/>
     </row>
     <row r="12" spans="9:81" ht="14.4" customHeight="1">
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="163"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
       <c r="AC12" s="55"/>
       <c r="AD12" s="55"/>
       <c r="AE12" s="55"/>
@@ -19182,16 +19156,16 @@
       <c r="BP12" s="55"/>
     </row>
     <row r="13" spans="9:81" ht="14.4" customHeight="1">
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
       <c r="W13" s="75"/>
       <c r="AC13" s="55"/>
       <c r="AD13" s="55"/>
@@ -23113,25 +23087,25 @@
       </c>
     </row>
     <row r="62" spans="9:111" ht="28.8">
-      <c r="L62" s="164" t="str">
+      <c r="L62" s="169" t="str">
         <f ca="1">CELL("filename")</f>
-        <v>C:\Users\Ankita\Documents\ShreeJyotirlingPrasanna\[Shree jyotirling fund Sheet.xlsx]Sheet5</v>
-      </c>
-      <c r="M62" s="164"/>
-      <c r="N62" s="164"/>
-      <c r="O62" s="164"/>
-      <c r="P62" s="164"/>
-      <c r="Q62" s="164"/>
-      <c r="R62" s="164"/>
-      <c r="S62" s="164"/>
-      <c r="T62" s="164"/>
-      <c r="U62" s="164"/>
-      <c r="V62" s="164"/>
-      <c r="W62" s="164"/>
-      <c r="X62" s="164"/>
-      <c r="Y62" s="164"/>
-      <c r="Z62" s="164"/>
-      <c r="AA62" s="164"/>
+        <v>C:\Users\Ankita\Documents\CommandGit\Lets-Learn-Git\Sheet\[Shree jyotirling fund Sheet.xlsx]Sheet5</v>
+      </c>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="169"/>
+      <c r="Q62" s="169"/>
+      <c r="R62" s="169"/>
+      <c r="S62" s="169"/>
+      <c r="T62" s="169"/>
+      <c r="U62" s="169"/>
+      <c r="V62" s="169"/>
+      <c r="W62" s="169"/>
+      <c r="X62" s="169"/>
+      <c r="Y62" s="169"/>
+      <c r="Z62" s="169"/>
+      <c r="AA62" s="169"/>
       <c r="AM62" s="55"/>
       <c r="AN62" s="55"/>
       <c r="AO62" s="55"/>
@@ -23410,17 +23384,17 @@
     <mergeCell ref="L62:AA62"/>
   </mergeCells>
   <conditionalFormatting sqref="CA24">
-    <cfRule type="expression" dxfId="181" priority="7">
+    <cfRule type="expression" dxfId="176" priority="7">
       <formula>"if($AL$18:$AL$53&gt;0)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:CC52">
-    <cfRule type="expression" dxfId="180" priority="6">
+    <cfRule type="expression" dxfId="175" priority="6">
       <formula>$AL16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:I93">
-    <cfRule type="expression" dxfId="179" priority="5">
+    <cfRule type="expression" dxfId="174" priority="5">
       <formula>$AL74&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Sheet/Shree jyotirling fund Sheet.xlsx
+++ b/Sheet/Shree jyotirling fund Sheet.xlsx
@@ -2499,13 +2499,13 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2513,6 +2513,24 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2531,24 +2549,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8647,11 +8647,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1179650720"/>
-        <c:axId val="1179651264"/>
+        <c:axId val="916918688"/>
+        <c:axId val="916919232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1179650720"/>
+        <c:axId val="916918688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8693,7 +8693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1179651264"/>
+        <c:crossAx val="916919232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8701,7 +8701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1179651264"/>
+        <c:axId val="916919232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8751,7 +8751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1179650720"/>
+        <c:crossAx val="916918688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9359,7 +9359,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9402,7 +9402,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Fire Ceremony Dattatreya Jayanti Havan | Lilleoru.ee">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9466,7 +9466,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Jotiba Desktop Wallpaper of God \u2013 Free wallpaper download ...">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9535,7 +9535,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Fire Ceremony Dattatreya Jayanti Havan | Lilleoru.ee">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9585,7 +9585,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Jotiba Desktop Wallpaper of God \u2013 Free wallpaper download ...">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12050,7 +12050,7 @@
   <dimension ref="I7:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC37" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AJ55" sqref="AJ55"/>
+      <selection activeCell="AJ54" sqref="AJ54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16182,12 +16182,10 @@
       <c r="AI54" s="127">
         <v>200</v>
       </c>
-      <c r="AJ54" s="128">
-        <v>200</v>
-      </c>
+      <c r="AJ54" s="128"/>
       <c r="AK54" s="129">
         <f>SUM(Table35[[#This Row],[JAN]:[VYAJ]])</f>
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="AL54" s="128"/>
       <c r="AM54" s="128"/>
@@ -16799,11 +16797,11 @@
       </c>
       <c r="AJ60" s="133">
         <f>SUBTOTAL(109,Table35[VYAJ])</f>
-        <v>157130</v>
+        <v>156930</v>
       </c>
       <c r="AK60" s="133">
         <f>SUM(Table35[TOTAL(V^2)])</f>
-        <v>1038130</v>
+        <v>1037930</v>
       </c>
       <c r="AL60" s="133">
         <f>SUM(Table35[KARJ])</f>
@@ -16831,7 +16829,7 @@
       <c r="J62" s="147"/>
       <c r="K62" s="74">
         <f>Table35[[#Totals],[TOTAL(V^2)]]-Table35[[#Totals],[TOTAL]]+Table35[[#Totals],[DAND]]</f>
-        <v>605260</v>
+        <v>605060</v>
       </c>
     </row>
     <row r="64" spans="9:42">
@@ -18029,17 +18027,17 @@
     </row>
     <row r="5" spans="2:20" ht="18">
       <c r="B5" s="114"/>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
       <c r="L5" s="116"/>
       <c r="Q5">
         <f>IF(ISNUMBER(SEARCH($E$11,R5)),MAX($Q$1:Q4)+1,0)</f>
@@ -18055,15 +18053,15 @@
     </row>
     <row r="6" spans="2:20" ht="18">
       <c r="B6" s="114"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
       <c r="L6" s="116"/>
       <c r="Q6">
         <f>IF(ISNUMBER(SEARCH($E$11,R6)),MAX($Q$1:Q5)+1,0)</f>
@@ -18079,15 +18077,15 @@
     </row>
     <row r="7" spans="2:20" ht="18">
       <c r="B7" s="114"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
       <c r="L7" s="116"/>
       <c r="Q7">
         <f>IF(ISNUMBER(SEARCH($E$11,R7)),MAX($Q$1:Q6)+1,0)</f>
@@ -18103,17 +18101,17 @@
     </row>
     <row r="8" spans="2:20" ht="14.4" customHeight="1">
       <c r="B8" s="114"/>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
       <c r="L8" s="116"/>
       <c r="Q8">
         <f>IF(ISNUMBER(SEARCH($E$11,R8)),MAX($Q$1:Q7)+1,0)</f>
@@ -18129,15 +18127,15 @@
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1">
       <c r="B9" s="114"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
       <c r="L9" s="116"/>
       <c r="Q9">
         <f>IF(ISNUMBER(SEARCH($E$11,R9)),MAX($Q$1:Q8)+1,0)</f>
@@ -18177,17 +18175,17 @@
     </row>
     <row r="11" spans="2:20" ht="28.8" thickBot="1">
       <c r="B11" s="114"/>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="165" t="s">
+      <c r="D11" s="153"/>
+      <c r="E11" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="167"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="115"/>
       <c r="K11" s="115"/>
       <c r="L11" s="116"/>
@@ -18207,9 +18205,9 @@
       <c r="B12" s="114"/>
       <c r="C12" s="115"/>
       <c r="D12" s="115"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
       <c r="H12" s="115"/>
       <c r="I12" s="115"/>
       <c r="J12" s="115"/>
@@ -18228,20 +18226,20 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="25.8" thickBot="1">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,2,0),0)</f>
         <v>600</v>
       </c>
       <c r="G13" s="155"/>
       <c r="H13" s="115"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
       <c r="K13" s="115"/>
       <c r="L13" s="115"/>
       <c r="Q13">
@@ -18281,12 +18279,12 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="25.8" thickBot="1">
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="161"/>
       <c r="F15" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,27,0),0)</f>
         <v>22680</v>
@@ -18310,9 +18308,9 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="115"/>
       <c r="F16" s="115"/>
       <c r="G16" s="115"/>
@@ -18334,12 +18332,12 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,26,0),0)</f>
         <v>8280</v>
@@ -18387,12 +18385,12 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,28,0),0)</f>
         <v>61000</v>
@@ -18440,12 +18438,12 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
       <c r="F21" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,29,0),0)</f>
         <v>61000</v>
@@ -18493,12 +18491,12 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="25.8" thickBot="1">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="160" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="161"/>
       <c r="F23" s="154">
         <f>_xlfn.IFNA(VLOOKUP(E11,Sheet5!K16:AO59,30,0),0)</f>
         <v>0</v>
@@ -18831,13 +18829,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C5:K7"/>
-    <mergeCell ref="C8:K9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B16:D16"/>
@@ -18850,6 +18841,13 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C5:K7"/>
+    <mergeCell ref="C8:K9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R36">
     <cfRule type="expression" dxfId="180" priority="4">
